--- a/data/dataset_Tony.xlsx
+++ b/data/dataset_Tony.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="616">
   <si>
     <t>Common name</t>
   </si>
@@ -1960,6 +1960,48 @@
   </si>
   <si>
     <t>Eurasian Blue Tit</t>
+  </si>
+  <si>
+    <t>Western Koel</t>
+  </si>
+  <si>
+    <t>Canopy</t>
+  </si>
+  <si>
+    <t>Brood parasite: Brown-headed Cowbird, very rarely</t>
+  </si>
+  <si>
+    <t>Brood parasite of Crows and Magpies</t>
+  </si>
+  <si>
+    <t>Indian Robin</t>
+  </si>
+  <si>
+    <t>Eastern Spinebill</t>
+  </si>
+  <si>
+    <t>Shikra</t>
+  </si>
+  <si>
+    <t>Levant Sparrowhawk</t>
+  </si>
+  <si>
+    <t>Frances's Sparrowhawk</t>
+  </si>
+  <si>
+    <t>Predation by Pied Crow (Corvus albus)</t>
+  </si>
+  <si>
+    <t>Nothern Goshawk</t>
+  </si>
+  <si>
+    <t>Temperate Coniferous Forests</t>
+  </si>
+  <si>
+    <t>Carnivore</t>
+  </si>
+  <si>
+    <t>Cooper's Hawk</t>
   </si>
 </sst>
 </file>
@@ -2319,9 +2361,9 @@
   <dimension ref="A1:J527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="576" activePane="bottomLeft"/>
+      <pane ySplit="576" topLeftCell="A10" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3067,7 +3109,7 @@
         <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3161,106 +3203,304 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>602</v>
+      </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>584</v>
+      </c>
+      <c r="E28" t="s">
+        <v>603</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>569</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>606</v>
+      </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>583</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>569</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>607</v>
+      </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>584</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>569</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>608</v>
+      </c>
       <c r="B31" t="s">
         <v>68</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>584</v>
+      </c>
+      <c r="E31" t="s">
+        <v>569</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>609</v>
+      </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>584</v>
+      </c>
+      <c r="E32" t="s">
+        <v>569</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>610</v>
+      </c>
       <c r="B33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>584</v>
+      </c>
+      <c r="E33" t="s">
+        <v>569</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>612</v>
+      </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D34" t="s">
+        <v>614</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>615</v>
+      </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>614</v>
+      </c>
+      <c r="E35" t="s">
+        <v>578</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>85</v>
       </c>

--- a/data/dataset_Tony.xlsx
+++ b/data/dataset_Tony.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="783">
   <si>
     <t>Common name</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Merops malimbicus</t>
   </si>
   <si>
-    <t>Neocossyphus fraseri</t>
-  </si>
-  <si>
     <t>Neocossyphus poensis</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>Ploceus nigricollis</t>
   </si>
   <si>
-    <t>Zoothera camaronensis</t>
-  </si>
-  <si>
     <t>Ficedula albicollis</t>
   </si>
   <si>
@@ -1773,9 +1767,6 @@
     <t>Cinnyris chloropygius</t>
   </si>
   <si>
-    <t>Nectarinia chloropygia</t>
-  </si>
-  <si>
     <t>Cyanomitra oritis</t>
   </si>
   <si>
@@ -2002,6 +1993,516 @@
   </si>
   <si>
     <t>Cooper's Hawk</t>
+  </si>
+  <si>
+    <t>Chinese Sparrowhawk</t>
+  </si>
+  <si>
+    <t>Predation by snakes and Jays</t>
+  </si>
+  <si>
+    <t>African Goshawk</t>
+  </si>
+  <si>
+    <t>Green-tailed Bistlebill</t>
+  </si>
+  <si>
+    <t>Few info on breeding.</t>
+  </si>
+  <si>
+    <t>Red-tailed Bistlebill</t>
+  </si>
+  <si>
+    <t>Buff-spotted Woodpecker</t>
+  </si>
+  <si>
+    <t>By Spotted Honeyguide (Indicator maculatus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White-browed Forest-flycatcher </t>
+  </si>
+  <si>
+    <t>Rosy Bee-eater</t>
+  </si>
+  <si>
+    <t>White-tailed Ant-thrush</t>
+  </si>
+  <si>
+    <t>Neocossyphus fraseri; new:(Stizorhina fraseri)</t>
+  </si>
+  <si>
+    <t>Rufous Flycatcher-thrush</t>
+  </si>
+  <si>
+    <t>Western Black-headed Oriole</t>
+  </si>
+  <si>
+    <t>Chestnut Wattle-eye</t>
+  </si>
+  <si>
+    <t>Black-necked Weaver</t>
+  </si>
+  <si>
+    <t>Zoothera camaronensis; new Geokichla camaronensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black-eared Ground-thrush </t>
+  </si>
+  <si>
+    <t>Collared Flycatcher</t>
+  </si>
+  <si>
+    <t>White-chested Alethe</t>
+  </si>
+  <si>
+    <t>Flappet Lark</t>
+  </si>
+  <si>
+    <t>Babbling Starling</t>
+  </si>
+  <si>
+    <t>Crowned Hornbill</t>
+  </si>
+  <si>
+    <t>Corn Crake</t>
+  </si>
+  <si>
+    <t>Black-winged Bishop</t>
+  </si>
+  <si>
+    <t>European Pied Flycatcher</t>
+  </si>
+  <si>
+    <t>Blyth's Reed-warbler</t>
+  </si>
+  <si>
+    <t>Willow Warbler</t>
+  </si>
+  <si>
+    <t>Melodious Warbler</t>
+  </si>
+  <si>
+    <t>Common Reed Warbler</t>
+  </si>
+  <si>
+    <t>Long-tail Tit</t>
+  </si>
+  <si>
+    <t>Eurasian Sparrohawk</t>
+  </si>
+  <si>
+    <t>Madagascar Swamp-warbler</t>
+  </si>
+  <si>
+    <t>Great Reed Warbler</t>
+  </si>
+  <si>
+    <t>Clamorous Reed-warbler</t>
+  </si>
+  <si>
+    <t>Spotted Kingfisher</t>
+  </si>
+  <si>
+    <t>Red-breasted Flycatcher</t>
+  </si>
+  <si>
+    <t>Garden Warbler</t>
+  </si>
+  <si>
+    <t>Common Wood Pigeon</t>
+  </si>
+  <si>
+    <t>Rock pigeon</t>
+  </si>
+  <si>
+    <t>Black Kite</t>
+  </si>
+  <si>
+    <t>House Martin</t>
+  </si>
+  <si>
+    <t>European Bee-eater</t>
+  </si>
+  <si>
+    <t>Bluethroat</t>
+  </si>
+  <si>
+    <t>Common Moorhen</t>
+  </si>
+  <si>
+    <t>Common Blackbird</t>
+  </si>
+  <si>
+    <t>American Robin</t>
+  </si>
+  <si>
+    <t>Carrion Crow</t>
+  </si>
+  <si>
+    <t>Eurasian Skylark</t>
+  </si>
+  <si>
+    <t>House Sparrow</t>
+  </si>
+  <si>
+    <t>Common Kingfisher</t>
+  </si>
+  <si>
+    <t>Red-legged Partridge</t>
+  </si>
+  <si>
+    <t>Barn Swallow</t>
+  </si>
+  <si>
+    <t>Common Nightingale</t>
+  </si>
+  <si>
+    <t>Spotted Flycatcher</t>
+  </si>
+  <si>
+    <t>Greylag Goose</t>
+  </si>
+  <si>
+    <t>Great Cormorant</t>
+  </si>
+  <si>
+    <t>Ruddy Shelduck</t>
+  </si>
+  <si>
+    <t>American Pipit</t>
+  </si>
+  <si>
+    <t>Tawny Pipit</t>
+  </si>
+  <si>
+    <t>Hume's Warbler</t>
+  </si>
+  <si>
+    <t>Greenish Warbler</t>
+  </si>
+  <si>
+    <t>Great White Egret</t>
+  </si>
+  <si>
+    <t>Marsh Warbler</t>
+  </si>
+  <si>
+    <t>Olivaceous Warbler</t>
+  </si>
+  <si>
+    <t>Short-eared Owl</t>
+  </si>
+  <si>
+    <t>Long-eared Owl</t>
+  </si>
+  <si>
+    <t>Little Owl</t>
+  </si>
+  <si>
+    <t>White-breasted Nuthatch</t>
+  </si>
+  <si>
+    <t>Northern Waterthrush</t>
+  </si>
+  <si>
+    <t>Barn Owl</t>
+  </si>
+  <si>
+    <t>Great Horned Owl</t>
+  </si>
+  <si>
+    <t>Cedar Waxwing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohemian Waxwing </t>
+  </si>
+  <si>
+    <t>Brambling</t>
+  </si>
+  <si>
+    <t>Common Chaffinch</t>
+  </si>
+  <si>
+    <t>Common Redstart</t>
+  </si>
+  <si>
+    <t>Common Chiffchaff</t>
+  </si>
+  <si>
+    <t>Arctic Warbler</t>
+  </si>
+  <si>
+    <t>Icterine Warbler</t>
+  </si>
+  <si>
+    <t>Red-backed Shrike</t>
+  </si>
+  <si>
+    <t>Whinchat</t>
+  </si>
+  <si>
+    <t>Eurasian Blackcap</t>
+  </si>
+  <si>
+    <t>Common Buzzard</t>
+  </si>
+  <si>
+    <t>Rough-legged Buzzard</t>
+  </si>
+  <si>
+    <t>Pectoral Sandpiper</t>
+  </si>
+  <si>
+    <t>Coal Tit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine Siskin </t>
+  </si>
+  <si>
+    <t>Bar-tailed Godwit</t>
+  </si>
+  <si>
+    <t>Cattle Egret</t>
+  </si>
+  <si>
+    <t>Eleonaora's Falcon</t>
+  </si>
+  <si>
+    <t>European Eagle Owl</t>
+  </si>
+  <si>
+    <t>Snowy Owl</t>
+  </si>
+  <si>
+    <t>Red-tail Hawk</t>
+  </si>
+  <si>
+    <t>Red-shouldered Hawk</t>
+  </si>
+  <si>
+    <t>Ferruginous Hawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fieldfare </t>
+  </si>
+  <si>
+    <t>Northern Cardinal</t>
+  </si>
+  <si>
+    <t>European Goldfinch</t>
+  </si>
+  <si>
+    <t>European Serin</t>
+  </si>
+  <si>
+    <t>European Robin</t>
+  </si>
+  <si>
+    <t>European Greenfinch</t>
+  </si>
+  <si>
+    <t>Western Capercaillie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Crossbill </t>
+  </si>
+  <si>
+    <t>American Yellow Warbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Raven </t>
+  </si>
+  <si>
+    <t>Townsend's Warbler</t>
+  </si>
+  <si>
+    <t>Short-toed Treecreeper</t>
+  </si>
+  <si>
+    <t>Cetti's Warbler</t>
+  </si>
+  <si>
+    <t>Griffon Vulture</t>
+  </si>
+  <si>
+    <t>Long-legged Buzzard</t>
+  </si>
+  <si>
+    <t>Caspian Gull</t>
+  </si>
+  <si>
+    <t>Herring Gull</t>
+  </si>
+  <si>
+    <t>Lesser Spotted Wodpecker</t>
+  </si>
+  <si>
+    <t>Little Bittern</t>
+  </si>
+  <si>
+    <t>White-throated Dipper</t>
+  </si>
+  <si>
+    <t>Eurasian Jay</t>
+  </si>
+  <si>
+    <t>Eurasian Magpie</t>
+  </si>
+  <si>
+    <t>Chipping Sparrow</t>
+  </si>
+  <si>
+    <t>Tennessee Warbler</t>
+  </si>
+  <si>
+    <t>American Crow</t>
+  </si>
+  <si>
+    <t>Large-billed Crow</t>
+  </si>
+  <si>
+    <t>Black-billed Magpie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown-eared Bulbul </t>
+  </si>
+  <si>
+    <t>Oriental Turtle-dove</t>
+  </si>
+  <si>
+    <t>Lesser Antillean Bullfinch</t>
+  </si>
+  <si>
+    <t>Blue-throated Starfrontlet</t>
+  </si>
+  <si>
+    <t>Red Tanager</t>
+  </si>
+  <si>
+    <t>Mountain Chickadee</t>
+  </si>
+  <si>
+    <t>Marsh Wren</t>
+  </si>
+  <si>
+    <t>Striated Pardalote</t>
+  </si>
+  <si>
+    <t>Spotted Pardalote</t>
+  </si>
+  <si>
+    <t>Brown Treecreeper</t>
+  </si>
+  <si>
+    <t>Blue Ground-dove</t>
+  </si>
+  <si>
+    <t>Brown Trembler</t>
+  </si>
+  <si>
+    <t>Northern Double-collared Sunbird</t>
+  </si>
+  <si>
+    <t>Moreau's Sunbird</t>
+  </si>
+  <si>
+    <t>Souimanga Sunbird</t>
+  </si>
+  <si>
+    <t>Mayotte Sunbird</t>
+  </si>
+  <si>
+    <t>Cameroon Sunbird</t>
+  </si>
+  <si>
+    <t>Olive-bellied Sunbird</t>
+  </si>
+  <si>
+    <t>Cape Sugarbird</t>
+  </si>
+  <si>
+    <t>Southern Double-collared Sunbird</t>
+  </si>
+  <si>
+    <t>Orange-breasted Sunbird</t>
+  </si>
+  <si>
+    <t>Chattering Cisticola</t>
+  </si>
+  <si>
+    <t>Brown Boobook</t>
+  </si>
+  <si>
+    <t>Caspian Gull subspecies</t>
+  </si>
+  <si>
+    <t>Besra</t>
+  </si>
+  <si>
+    <t>Western Marsh Harrier</t>
+  </si>
+  <si>
+    <t>Lark Sparrow</t>
+  </si>
+  <si>
+    <t>Common Bush-tanager</t>
+  </si>
+  <si>
+    <t>Green-and-rufous Kingfisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Pygmy-kingfisher </t>
+  </si>
+  <si>
+    <t>Green Oropendola</t>
+  </si>
+  <si>
+    <t>Band-rumped Swift</t>
+  </si>
+  <si>
+    <t>Grey-capped Emerald Dove</t>
+  </si>
+  <si>
+    <t>Carmelite Sunbird</t>
+  </si>
+  <si>
+    <t>Wrentit</t>
+  </si>
+  <si>
+    <t>Short-tailed Antthrush</t>
+  </si>
+  <si>
+    <t>Black Antbird</t>
+  </si>
+  <si>
+    <t>Cape Barren Goose</t>
+  </si>
+  <si>
+    <t>Red-headed Manakin</t>
+  </si>
+  <si>
+    <t>Golden-headed Manakin</t>
+  </si>
+  <si>
+    <t>Grey Antbird</t>
+  </si>
+  <si>
+    <t>Common Teal</t>
+  </si>
+  <si>
+    <t>Falcated Duck</t>
+  </si>
+  <si>
+    <t>Northern Pintail</t>
+  </si>
+  <si>
+    <t>Blue-winged Teal</t>
+  </si>
+  <si>
+    <t>Principe Sunbird</t>
+  </si>
+  <si>
+    <t>Newton's Sunbird</t>
   </si>
 </sst>
 </file>
@@ -2358,12 +2859,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J527"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="576" topLeftCell="A229" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2484,10 +2985,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -2516,7 +3017,7 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>39</v>
@@ -2545,7 +3046,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -2574,10 +3075,10 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -2603,16 +3104,16 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -2632,7 +3133,7 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E9" t="s">
         <v>52</v>
@@ -2661,7 +3162,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -2690,10 +3191,10 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E11" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -2719,10 +3220,10 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -2739,25 +3240,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -2768,39 +3269,39 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B14" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D14" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -2809,10 +3310,10 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E15" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -2824,27 +3325,27 @@
         <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J15" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B16" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -2861,7 +3362,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -2870,16 +3371,16 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
@@ -2888,12 +3389,12 @@
         <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -2902,10 +3403,10 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E18" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
@@ -2922,19 +3423,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D19" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E19" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
@@ -2949,24 +3450,24 @@
         <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D20" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E20" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F20" t="s">
         <v>45</v>
@@ -2981,12 +3482,12 @@
         <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -2995,16 +3496,16 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H21" t="s">
         <v>30</v>
@@ -3013,21 +3514,21 @@
         <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D22" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -3045,30 +3546,30 @@
         <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E23" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -3077,12 +3578,12 @@
         <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -3091,7 +3592,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -3100,53 +3601,53 @@
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H24" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I24" t="s">
         <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D25" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H25" t="s">
         <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J25" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -3155,10 +3656,10 @@
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E26" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -3175,7 +3676,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
@@ -3184,16 +3685,16 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E27" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
@@ -3204,7 +3705,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -3213,16 +3714,16 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E28" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H28" t="s">
         <v>30</v>
@@ -3231,12 +3732,12 @@
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -3245,7 +3746,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -3254,7 +3755,7 @@
         <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
@@ -3265,7 +3766,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -3274,7 +3775,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -3283,7 +3784,7 @@
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H30" t="s">
         <v>19</v>
@@ -3294,7 +3795,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B31" t="s">
         <v>68</v>
@@ -3303,10 +3804,10 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E31" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
@@ -3318,12 +3819,12 @@
         <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
@@ -3332,10 +3833,10 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E32" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F32" t="s">
         <v>26</v>
@@ -3352,7 +3853,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B33" t="s">
         <v>70</v>
@@ -3361,10 +3862,10 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E33" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F33" t="s">
         <v>26</v>
@@ -3379,21 +3880,21 @@
         <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D34" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>
@@ -3413,7 +3914,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -3422,10 +3923,10 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E35" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F35" t="s">
         <v>26</v>
@@ -3441,2468 +3942,3109 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>613</v>
+      </c>
       <c r="B36" t="s">
         <v>73</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>581</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>615</v>
+      </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>581</v>
+      </c>
+      <c r="E37" t="s">
+        <v>575</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>616</v>
+      </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>581</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>618</v>
+      </c>
       <c r="B39" t="s">
         <v>76</v>
       </c>
+      <c r="C39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>581</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>619</v>
+      </c>
       <c r="B40" t="s">
         <v>77</v>
       </c>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>580</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>621</v>
+      </c>
       <c r="B41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>622</v>
+      </c>
       <c r="B42" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>625</v>
+      </c>
       <c r="B43" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>623</v>
+      </c>
+      <c r="B44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>626</v>
+      </c>
+      <c r="B45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>627</v>
+      </c>
+      <c r="B46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>628</v>
+      </c>
+      <c r="B47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>630</v>
+      </c>
+      <c r="B48" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>631</v>
+      </c>
+      <c r="B49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>632</v>
+      </c>
+      <c r="B50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>633</v>
+      </c>
+      <c r="B51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>634</v>
+      </c>
+      <c r="B52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>635</v>
+      </c>
+      <c r="B53" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>636</v>
+      </c>
+      <c r="B54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>637</v>
+      </c>
+      <c r="B55" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>638</v>
+      </c>
+      <c r="B56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>639</v>
+      </c>
+      <c r="B57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>640</v>
+      </c>
+      <c r="B58" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>641</v>
+      </c>
+      <c r="B59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>642</v>
+      </c>
+      <c r="B60" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>643</v>
+      </c>
+      <c r="B61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>645</v>
+      </c>
+      <c r="B62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>644</v>
+      </c>
+      <c r="B63" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>646</v>
+      </c>
+      <c r="B64" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>647</v>
+      </c>
+      <c r="B65" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>648</v>
+      </c>
+      <c r="B66" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>649</v>
+      </c>
+      <c r="B71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>650</v>
+      </c>
+      <c r="B77" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>652</v>
+      </c>
+      <c r="B90" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>651</v>
+      </c>
+      <c r="B91" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>653</v>
+      </c>
+      <c r="B123" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>654</v>
+      </c>
+      <c r="B181" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>655</v>
+      </c>
+      <c r="B200" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>656</v>
+      </c>
+      <c r="B203" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>657</v>
+      </c>
+      <c r="B204" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>658</v>
+      </c>
+      <c r="B206" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>659</v>
+      </c>
+      <c r="B207" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>660</v>
+      </c>
+      <c r="B208" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>661</v>
+      </c>
+      <c r="B216" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>662</v>
+      </c>
+      <c r="B221" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>663</v>
+      </c>
+      <c r="B223" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>664</v>
+      </c>
+      <c r="B229" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>777</v>
+      </c>
+      <c r="B239" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>778</v>
+      </c>
+      <c r="B240" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>779</v>
+      </c>
+      <c r="B241" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>780</v>
+      </c>
+      <c r="B242" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>781</v>
+      </c>
+      <c r="B243" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>782</v>
+      </c>
+      <c r="B244" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>665</v>
+      </c>
+      <c r="B251" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>666</v>
+      </c>
+      <c r="B252" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>667</v>
+      </c>
+      <c r="B253" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>668</v>
+      </c>
+      <c r="B255" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B255" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B256" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>669</v>
+      </c>
+      <c r="B260" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>670</v>
+      </c>
+      <c r="B261" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B260" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B261" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>672</v>
+      </c>
+      <c r="B263" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B262" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>671</v>
+      </c>
+      <c r="B264" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B263" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B264" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B265" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B267" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B268" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B269" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B270" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B271" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B272" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>674</v>
+      </c>
+      <c r="B289" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>673</v>
+      </c>
+      <c r="B290" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B289" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B290" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B291" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B292" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B294" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>675</v>
+      </c>
+      <c r="B296" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B295" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B296" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B297" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B298" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B299" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B300" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B301" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>676</v>
+      </c>
+      <c r="B303" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B302" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>677</v>
+      </c>
+      <c r="B304" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B303" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>678</v>
+      </c>
+      <c r="B305" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B304" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>679</v>
+      </c>
+      <c r="B306" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B305" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>680</v>
+      </c>
+      <c r="B308" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B308" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B309" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B310" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B311" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B312" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B313" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B314" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B315" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B316" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B317" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B318" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B319" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B320" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B321" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B322" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B323" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B324" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B326" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B325" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B326" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B328" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B327" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B328" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B329" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B330" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B331" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>681</v>
+      </c>
+      <c r="B333" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B332" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>682</v>
+      </c>
+      <c r="B334" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B333" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B334" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B335" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B336" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B353" t="s">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B355" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B354" t="s">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B355" t="s">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B356" t="s">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B357" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B358" t="s">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>683</v>
+      </c>
+      <c r="B360" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B359" t="s">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B360" t="s">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>684</v>
+      </c>
+      <c r="B362" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B361" t="s">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B362" t="s">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>685</v>
+      </c>
+      <c r="B364" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B363" t="s">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>686</v>
+      </c>
+      <c r="B365" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B364" t="s">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B366" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B365" t="s">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>687</v>
+      </c>
+      <c r="B367" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B366" t="s">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>688</v>
+      </c>
+      <c r="B368" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B367" t="s">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B368" t="s">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B370" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B369" t="s">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B371" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B370" t="s">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>689</v>
+      </c>
+      <c r="B372" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B371" t="s">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>690</v>
+      </c>
+      <c r="B373" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B372" t="s">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>691</v>
+      </c>
+      <c r="B374" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B373" t="s">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B375" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B374" t="s">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B376" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B375" t="s">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>692</v>
+      </c>
+      <c r="B377" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B376" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>693</v>
+      </c>
+      <c r="B378" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B377" t="s">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>694</v>
+      </c>
+      <c r="B379" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B378" t="s">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>695</v>
+      </c>
+      <c r="B380" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B379" t="s">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B381" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B380" t="s">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B382" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B381" t="s">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B383" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B382" t="s">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>696</v>
+      </c>
+      <c r="B384" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B383" t="s">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>697</v>
+      </c>
+      <c r="B385" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B384" t="s">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>698</v>
+      </c>
+      <c r="B386" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B385" t="s">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B387" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B386" t="s">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B388" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B387" t="s">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B389" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B388" t="s">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B390" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B389" t="s">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B390" t="s">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B391" t="s">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B393" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B392" t="s">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>699</v>
+      </c>
+      <c r="B394" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B393" t="s">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B395" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B394" t="s">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B396" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B395" t="s">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B397" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B396" t="s">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>700</v>
+      </c>
+      <c r="B398" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B397" t="s">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B399" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B398" t="s">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B400" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B399" t="s">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B401" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B400" t="s">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B401" t="s">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B403" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B402" t="s">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B404" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B403" t="s">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B404" t="s">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B406" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B405" t="s">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>701</v>
+      </c>
+      <c r="B407" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B406" t="s">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>702</v>
+      </c>
+      <c r="B408" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B407" t="s">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>703</v>
+      </c>
+      <c r="B409" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B408" t="s">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>704</v>
+      </c>
+      <c r="B410" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B409" t="s">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>705</v>
+      </c>
+      <c r="B411" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B410" t="s">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B411" t="s">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B413" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B412" t="s">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B413" t="s">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B414" t="s">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B415" t="s">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B416" t="s">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B417" t="s">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B418" t="s">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>706</v>
+      </c>
+      <c r="B420" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B419" t="s">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>707</v>
+      </c>
+      <c r="B421" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B420" t="s">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>708</v>
+      </c>
+      <c r="B422" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B421" t="s">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B422" t="s">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B423" t="s">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B424" t="s">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B425" t="s">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B426" t="s">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B427" t="s">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B428" t="s">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B429" t="s">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B430" t="s">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B431" t="s">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B432" t="s">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B433" t="s">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B434" t="s">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>715</v>
+      </c>
+      <c r="B436" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B435" t="s">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>709</v>
+      </c>
+      <c r="B437" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B436" t="s">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>710</v>
+      </c>
+      <c r="B438" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B437" t="s">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>711</v>
+      </c>
+      <c r="B439" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B438" t="s">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>714</v>
+      </c>
+      <c r="B440" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B439" t="s">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>712</v>
+      </c>
+      <c r="B441" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B440" t="s">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>713</v>
+      </c>
+      <c r="B442" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B441" t="s">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B442" t="s">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B443" t="s">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B444" t="s">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B446" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B445" t="s">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B446" t="s">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B447" t="s">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B449" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B448" t="s">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B449" t="s">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B450" t="s">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B451" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>716</v>
+      </c>
+      <c r="B453" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B452" t="s">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B453" t="s">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>717</v>
+      </c>
+      <c r="B455" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B454" t="s">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>718</v>
+      </c>
+      <c r="B456" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B455" t="s">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>719</v>
+      </c>
+      <c r="B457" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B456" t="s">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B457" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B458" t="s">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B459" t="s">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B461" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B460" t="s">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B461" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B462" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B463" t="s">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B464" t="s">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B465" t="s">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B466" t="s">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B468" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B467" t="s">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B468" t="s">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>720</v>
+      </c>
+      <c r="B470" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B469" t="s">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>776</v>
+      </c>
+      <c r="B471" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B470" t="s">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>775</v>
+      </c>
+      <c r="B472" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B471" t="s">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>774</v>
+      </c>
+      <c r="B473" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B472" t="s">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>773</v>
+      </c>
+      <c r="B474" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B473" t="s">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>772</v>
+      </c>
+      <c r="B475" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B474" t="s">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>721</v>
+      </c>
+      <c r="B476" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B475" t="s">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>771</v>
+      </c>
+      <c r="B477" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B476" t="s">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>770</v>
+      </c>
+      <c r="B478" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B477" t="s">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>769</v>
+      </c>
+      <c r="B479" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B478" t="s">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>768</v>
+      </c>
+      <c r="B480" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B479" t="s">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>767</v>
+      </c>
+      <c r="B481" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B480" t="s">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>766</v>
+      </c>
+      <c r="B482" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B481" t="s">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>765</v>
+      </c>
+      <c r="B483" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B482" t="s">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>764</v>
+      </c>
+      <c r="B484" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B483" t="s">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>763</v>
+      </c>
+      <c r="B485" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B484" t="s">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>762</v>
+      </c>
+      <c r="B486" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B485" t="s">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>761</v>
+      </c>
+      <c r="B487" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B486" t="s">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>722</v>
+      </c>
+      <c r="B488" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B487" t="s">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>760</v>
+      </c>
+      <c r="B489" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B488" t="s">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>723</v>
+      </c>
+      <c r="B490" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B489" t="s">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>724</v>
+      </c>
+      <c r="B491" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B490" t="s">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>725</v>
+      </c>
+      <c r="B492" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B491" t="s">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>726</v>
+      </c>
+      <c r="B493" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B492" t="s">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>759</v>
+      </c>
+      <c r="B494" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B493" t="s">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>727</v>
+      </c>
+      <c r="B495" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B494" t="s">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>758</v>
+      </c>
+      <c r="B496" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B495" t="s">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>757</v>
+      </c>
+      <c r="B497" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B496" t="s">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>756</v>
+      </c>
+      <c r="B498" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B497" t="s">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>755</v>
+      </c>
+      <c r="B499" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B498" t="s">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>754</v>
+      </c>
+      <c r="B500" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B499" t="s">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>753</v>
+      </c>
+      <c r="B501" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B500" t="s">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>752</v>
+      </c>
+      <c r="B502" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B501" t="s">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>728</v>
+      </c>
+      <c r="B503" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B502" t="s">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>751</v>
+      </c>
+      <c r="B504" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B503" t="s">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>750</v>
+      </c>
+      <c r="B505" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B504" t="s">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>749</v>
+      </c>
+      <c r="B506" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B505" t="s">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>748</v>
+      </c>
+      <c r="B507" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B506" t="s">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>747</v>
+      </c>
+      <c r="B508" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B507" t="s">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>729</v>
+      </c>
+      <c r="B509" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B508" t="s">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>730</v>
+      </c>
+      <c r="B510" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B509" t="s">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>746</v>
+      </c>
+      <c r="B511" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B510" t="s">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>745</v>
+      </c>
+      <c r="B512" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B511" t="s">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>744</v>
+      </c>
+      <c r="B513" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B512" t="s">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>743</v>
+      </c>
+      <c r="B514" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B513" t="s">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>742</v>
+      </c>
+      <c r="B515" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B514" t="s">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>731</v>
+      </c>
+      <c r="B516" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B515" t="s">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>732</v>
+      </c>
+      <c r="B517" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B516" t="s">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>733</v>
+      </c>
+      <c r="B518" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B517" t="s">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>735</v>
+      </c>
+      <c r="B519" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B518" t="s">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>734</v>
+      </c>
+      <c r="B520" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B519" t="s">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>736</v>
+      </c>
+      <c r="B521" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B520" t="s">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>737</v>
+      </c>
+      <c r="B522" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B521" t="s">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>738</v>
+      </c>
+      <c r="B523" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B522" t="s">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>739</v>
+      </c>
+      <c r="B524" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B523" t="s">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>740</v>
+      </c>
+      <c r="B525" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B524" t="s">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>741</v>
+      </c>
+      <c r="B526" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B525" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B526" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B527" t="s">
-        <v>564</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A45" r:id="rId1" display="https://www.hbw.com/species/western-black-headed-oriole-oriolus-brachyrynchus"/>
+    <hyperlink ref="A46" r:id="rId2" display="https://www.hbw.com/species/chestnut-wattle-eye-dyaphorophyia-castanea"/>
+    <hyperlink ref="A47" r:id="rId3" display="https://www.hbw.com/species/black-necked-weaver-ploceus-nigricollis"/>
+    <hyperlink ref="A48" r:id="rId4" display="https://www.hbw.com/species/black-eared-ground-thrush-geokichla-camaronensis"/>
+    <hyperlink ref="A49" r:id="rId5" display="https://www.hbw.com/report/collared-flycatcher-united-arab-emirates"/>
+    <hyperlink ref="A50" r:id="rId6" display="https://www.hbw.com/species/white-chested-alethe-chamaetylas-fuelleborni"/>
+    <hyperlink ref="A51" r:id="rId7" display="https://www.hbw.com/species/flappet-lark-mirafra-rufocinnamomea"/>
+    <hyperlink ref="A52" r:id="rId8" display="https://www.hbw.com/species/babbling-starling-neocichla-gutturalis"/>
+    <hyperlink ref="A53" r:id="rId9" display="https://www.hbw.com/species/crowned-hornbill-lophoceros-alboterminatus"/>
+    <hyperlink ref="A55" r:id="rId10" display="https://www.hbw.com/species/black-winged-bishop-euplectes-hordeaceus"/>
+    <hyperlink ref="A56" r:id="rId11" display="https://www.hbw.com/species/european-pied-flycatcher-ficedula-hypoleuca"/>
+    <hyperlink ref="A57" r:id="rId12" display="https://www.hbw.com/report/blyths-reed-warbler-portugal"/>
+    <hyperlink ref="A62" r:id="rId13" display="https://www.hbw.com/species/madagascar-swamp-warbler-acrocephalus-newtoni"/>
+    <hyperlink ref="A65" r:id="rId14" display="https://www.hbw.com/species/clamorous-reed-warbler-acrocephalus-stentoreus"/>
+    <hyperlink ref="A66" r:id="rId15" display="https://www.hbw.com/species/spotted-kingfisher-actenoides-lindsayi"/>
+    <hyperlink ref="A421" r:id="rId16" display="https://www.hbw.com/species/red-shouldered-hawk-buteo-lineatus"/>
+    <hyperlink ref="A422" r:id="rId17" display="https://www.hbw.com/species/ferruginous-hawk-buteo-regalis"/>
+    <hyperlink ref="A436" r:id="rId18" display="https://www.hbw.com/species/western-capercaillie-tetrao-urogallus"/>
+    <hyperlink ref="A455" r:id="rId19" display="https://www.hbw.com/species/american-yellow-warbler-setophaga-petechia"/>
+    <hyperlink ref="A516" r:id="rId20" display="https://www.hbw.com/species/chipping-sparrow-spizella-passerina"/>
+    <hyperlink ref="A517" r:id="rId21" display="https://www.hbw.com/species/tennessee-warbler-leiothlypis-peregrina"/>
+    <hyperlink ref="A518" r:id="rId22" display="https://www.hbw.com/species/american-crow-corvus-brachyrhynchos"/>
+    <hyperlink ref="A520" r:id="rId23" display="https://www.hbw.com/species/large-billed-crow-corvus-macrorhynchos"/>
+    <hyperlink ref="A521" r:id="rId24" display="https://www.hbw.com/species/brown-eared-bulbul-hypsipetes-amaurotis"/>
+    <hyperlink ref="A522" r:id="rId25" display="https://www.hbw.com/species/oriental-turtle-dove-streptopelia-orientalis"/>
+    <hyperlink ref="A525" r:id="rId26" display="https://www.hbw.com/species/red-tanager-piranga-flava"/>
+    <hyperlink ref="A514" r:id="rId27" display="https://www.hbw.com/species/striated-pardalote-pardalotus-striatus"/>
+    <hyperlink ref="A497" r:id="rId28" display="https://www.hbw.com/species/chattering-cisticola-cisticola-anonymus"/>
+    <hyperlink ref="A486" r:id="rId29" display="https://www.hbw.com/species/lark-sparrow-chondestes-grammacus"/>
+    <hyperlink ref="A485" r:id="rId30" display="https://www.hbw.com/species/common-bush-tanager-chlorospingus-flavopectus"/>
+    <hyperlink ref="A484" r:id="rId31" display="https://www.hbw.com/species/green-and-rufous-kingfisher-chloroceryle-inda"/>
+    <hyperlink ref="A477" r:id="rId32" display="https://www.hbw.com/species/short-tailed-antthrush-chamaeza-campanisona"/>
+    <hyperlink ref="A475" r:id="rId33" display="https://www.hbw.com/species/black-antbird-cercomacroides-serva"/>
+    <hyperlink ref="A474" r:id="rId34" display="https://www.hbw.com/species/cape-barren-goose-cereopsis-novaehollandiae"/>
+    <hyperlink ref="A473" r:id="rId35" display="https://www.hbw.com/species/red-headed-manakin-ceratopipra-rubrocapilla"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
--- a/data/dataset_Tony.xlsx
+++ b/data/dataset_Tony.xlsx
@@ -24,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="791">
   <si>
     <t>Common name</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Very few things known about this species</t>
   </si>
   <si>
-    <t>Leptocoma (Nectarinia) sperata</t>
-  </si>
-  <si>
     <t>Purple-throated Sunbird</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>Parasite: Plaintive Cuckoo</t>
   </si>
   <si>
-    <t>Arundinax (Acrocephalus) aedon</t>
-  </si>
-  <si>
     <t>Thick-billed Warbler</t>
   </si>
   <si>
@@ -1842,9 +1836,6 @@
     <t>Poecile gambeli</t>
   </si>
   <si>
-    <t>Tarsiger cyanurus (Luscinia cyanura)</t>
-  </si>
-  <si>
     <t>Orange-flanked Bush-robin</t>
   </si>
   <si>
@@ -1866,9 +1857,6 @@
     <t>Common Redpoll</t>
   </si>
   <si>
-    <t>Acanthis (Carduelis) flammea</t>
-  </si>
-  <si>
     <t>Boreal Forests/Taiga and Tundra</t>
   </si>
   <si>
@@ -1926,9 +1914,6 @@
     <t>Tundra, Boreal Forests/Taiga, Temperate Grasslands, Savannas and Shrublands</t>
   </si>
   <si>
-    <t>Setophaga (Dendroica) coronata</t>
-  </si>
-  <si>
     <t>Myrtle Warbler</t>
   </si>
   <si>
@@ -2028,9 +2013,6 @@
     <t>White-tailed Ant-thrush</t>
   </si>
   <si>
-    <t>Neocossyphus fraseri; new:(Stizorhina fraseri)</t>
-  </si>
-  <si>
     <t>Rufous Flycatcher-thrush</t>
   </si>
   <si>
@@ -2043,9 +2025,6 @@
     <t>Black-necked Weaver</t>
   </si>
   <si>
-    <t>Zoothera camaronensis; new Geokichla camaronensis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Black-eared Ground-thrush </t>
   </si>
   <si>
@@ -2503,6 +2482,51 @@
   </si>
   <si>
     <t>Newton's Sunbird</t>
+  </si>
+  <si>
+    <t>Former genus</t>
+  </si>
+  <si>
+    <t>Leptocoma sperata</t>
+  </si>
+  <si>
+    <t>(Nectarinia)</t>
+  </si>
+  <si>
+    <t>Arundinax aedon</t>
+  </si>
+  <si>
+    <t>(Acrocephalus)</t>
+  </si>
+  <si>
+    <t>(Luscinia cyanura)</t>
+  </si>
+  <si>
+    <t>(Carduelis)</t>
+  </si>
+  <si>
+    <t>Acanthis flammea</t>
+  </si>
+  <si>
+    <t>Tarsiger cyanurus</t>
+  </si>
+  <si>
+    <t>Setophaga coronata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Dendroica)</t>
+  </si>
+  <si>
+    <t>Neocossyphus fraseri</t>
+  </si>
+  <si>
+    <t>Stizorhina fraseri</t>
+  </si>
+  <si>
+    <t>Zoothera camaronensis</t>
+  </si>
+  <si>
+    <t>Geokichla camaronensis</t>
   </si>
 </sst>
 </file>
@@ -2859,26 +2883,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:K526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="576" topLeftCell="A229" activePane="bottomLeft"/>
-      <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
+      <pane ySplit="576" topLeftCell="A514" activePane="bottomLeft"/>
+      <selection activeCell="C541" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="34.77734375" customWidth="1"/>
+    <col min="4" max="4" width="86.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2886,48 +2910,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -2939,1087 +2963,1102 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>580</v>
-      </c>
-      <c r="E4" t="s">
-        <v>564</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>580</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>581</v>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>581</v>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>561</v>
       </c>
       <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>581</v>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>562</v>
       </c>
       <c r="G8" t="s">
-        <v>566</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
+        <v>563</v>
+      </c>
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>577</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>581</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>577</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>581</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>580</v>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>563</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F12" t="s">
+        <v>564</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" t="s">
+        <v>784</v>
+      </c>
+      <c r="C13" t="s">
+        <v>781</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>577</v>
+      </c>
+      <c r="F13" t="s">
+        <v>561</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>565</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" t="s">
+        <v>783</v>
+      </c>
+      <c r="C14" t="s">
+        <v>782</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E14" t="s">
+        <v>577</v>
+      </c>
+      <c r="F14" t="s">
+        <v>561</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>563</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>568</v>
+      </c>
+      <c r="K14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>577</v>
+      </c>
+      <c r="F15" t="s">
+        <v>571</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>568</v>
+      </c>
+      <c r="K15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>573</v>
+      </c>
+      <c r="B16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>577</v>
+      </c>
+      <c r="F16" t="s">
+        <v>571</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F17" t="s">
+        <v>574</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>563</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F18" t="s">
+        <v>571</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>578</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E19" t="s">
+        <v>576</v>
+      </c>
+      <c r="F19" t="s">
+        <v>571</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>582</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E20" t="s">
+        <v>577</v>
+      </c>
+      <c r="F20" t="s">
+        <v>571</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>583</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F21" t="s">
+        <v>561</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>561</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>584</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E22" t="s">
+        <v>577</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>586</v>
+      </c>
+      <c r="B23" t="s">
+        <v>785</v>
+      </c>
+      <c r="C23" t="s">
+        <v>786</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>576</v>
+      </c>
+      <c r="F23" t="s">
+        <v>571</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>587</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>577</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>587</v>
+      </c>
+      <c r="I24" t="s">
+        <v>589</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" t="s">
+        <v>576</v>
+      </c>
+      <c r="F25" t="s">
+        <v>561</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>561</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>568</v>
+      </c>
+      <c r="K25" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>592</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>576</v>
+      </c>
+      <c r="F26" t="s">
+        <v>561</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
-        <v>580</v>
-      </c>
-      <c r="E12" t="s">
-        <v>567</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>593</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>577</v>
+      </c>
+      <c r="F27" t="s">
+        <v>571</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
         <v>563</v>
       </c>
-      <c r="B13" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>581</v>
-      </c>
-      <c r="E13" t="s">
-        <v>564</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>594</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>577</v>
+      </c>
+      <c r="F28" t="s">
+        <v>595</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>563</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>598</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>576</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>563</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>599</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>577</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>563</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>600</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>577</v>
+      </c>
+      <c r="F31" t="s">
+        <v>563</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
         <v>568</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>577</v>
+      </c>
+      <c r="F32" t="s">
+        <v>563</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
         <v>19</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>602</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>577</v>
+      </c>
+      <c r="F33" t="s">
+        <v>563</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>604</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E34" t="s">
+        <v>606</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>607</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>569</v>
-      </c>
-      <c r="B14" t="s">
-        <v>570</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E35" t="s">
+        <v>606</v>
+      </c>
+      <c r="F35" t="s">
         <v>571</v>
       </c>
-      <c r="D14" t="s">
-        <v>581</v>
-      </c>
-      <c r="E14" t="s">
-        <v>564</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>608</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>577</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>610</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>577</v>
+      </c>
+      <c r="F37" t="s">
+        <v>571</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
         <v>26</v>
       </c>
-      <c r="G14" t="s">
-        <v>566</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>572</v>
-      </c>
-      <c r="J14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>574</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>581</v>
-      </c>
-      <c r="E15" t="s">
-        <v>575</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>572</v>
-      </c>
-      <c r="J15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>611</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
         <v>577</v>
       </c>
-      <c r="B16" t="s">
-        <v>576</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>581</v>
-      </c>
-      <c r="E16" t="s">
-        <v>575</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>584</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>580</v>
-      </c>
-      <c r="E17" t="s">
-        <v>578</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>566</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>583</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>581</v>
-      </c>
-      <c r="E18" t="s">
-        <v>575</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F38" t="s">
         <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>582</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D19" t="s">
-        <v>580</v>
-      </c>
-      <c r="E19" t="s">
-        <v>575</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>586</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D20" t="s">
-        <v>581</v>
-      </c>
-      <c r="E20" t="s">
-        <v>575</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>587</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>581</v>
-      </c>
-      <c r="E21" t="s">
-        <v>564</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>564</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>588</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D22" t="s">
-        <v>581</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>591</v>
-      </c>
-      <c r="B23" t="s">
-        <v>590</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>580</v>
-      </c>
-      <c r="E23" t="s">
-        <v>575</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>592</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>593</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>581</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>592</v>
-      </c>
-      <c r="H24" t="s">
-        <v>594</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>595</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E25" t="s">
-        <v>564</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>564</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>572</v>
-      </c>
-      <c r="J25" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>597</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>580</v>
-      </c>
-      <c r="E26" t="s">
-        <v>564</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>598</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>581</v>
-      </c>
-      <c r="E27" t="s">
-        <v>575</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" t="s">
-        <v>566</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>599</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>581</v>
-      </c>
-      <c r="E28" t="s">
-        <v>600</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>566</v>
-      </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>603</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>580</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>566</v>
-      </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>604</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>581</v>
-      </c>
-      <c r="E30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>566</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>605</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>581</v>
-      </c>
-      <c r="E31" t="s">
-        <v>566</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>606</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>581</v>
-      </c>
-      <c r="E32" t="s">
-        <v>566</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>607</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>581</v>
-      </c>
-      <c r="E33" t="s">
-        <v>566</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>609</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D34" t="s">
-        <v>611</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>612</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>611</v>
-      </c>
-      <c r="E35" t="s">
-        <v>575</v>
-      </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>613</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>581</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>615</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>581</v>
-      </c>
-      <c r="E37" t="s">
-        <v>575</v>
-      </c>
-      <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>616</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" t="s">
-        <v>581</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" t="s">
-        <v>19</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
@@ -4028,2981 +4067,2990 @@
         <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>613</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>577</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>614</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>576</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>616</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>619</v>
+      </c>
+      <c r="B43" t="s">
+        <v>788</v>
+      </c>
+      <c r="C43" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>618</v>
       </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>581</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>619</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" t="s">
-        <v>580</v>
-      </c>
-      <c r="E40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>621</v>
       </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>622</v>
       </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>625</v>
-      </c>
-      <c r="B43" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>623</v>
       </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>626</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>627</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>628</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>630</v>
-      </c>
       <c r="B48" t="s">
-        <v>629</v>
+        <v>790</v>
+      </c>
+      <c r="C48" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B123" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B181" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B200" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B203" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B204" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B206" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B207" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B208" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B216" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B221" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B223" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B229" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B239" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B240" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B242" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B243" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B251" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B252" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B253" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B255" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B260" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B261" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B263" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B264" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B289" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B290" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B296" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B303" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B304" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B305" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B306" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B308" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B333" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B334" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B360" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B362" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B364" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B365" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B367" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B368" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B372" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B373" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B374" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B377" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B378" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B379" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B380" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B384" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B385" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B386" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B394" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B398" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B407" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B408" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B409" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B410" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B411" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B420" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B421" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B422" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B436" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B437" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B438" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B439" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B440" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B441" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B442" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B453" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B455" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B456" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B457" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B470" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B471" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B472" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B473" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B474" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B475" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B476" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B477" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B478" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B479" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B480" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B481" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B482" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B483" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B484" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B485" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B486" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B487" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B488" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B489" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B490" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B491" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B492" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B493" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B494" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B495" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B496" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B497" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B498" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B499" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B500" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B501" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B502" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B503" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B504" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B505" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B506" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B507" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B508" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B509" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B510" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B511" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B512" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B513" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B514" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B515" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B516" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B517" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B518" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B519" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B520" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B521" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B522" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B523" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B524" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B525" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B526" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
